--- a/to-do-cloud.xlsx
+++ b/to-do-cloud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9767"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -1376,7 +1376,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="65" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="65" count="9">
         <n v="30"/>
         <n v="20"/>
         <n v="38"/>
@@ -1963,8 +1963,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15.75" customHeight="1"/>
@@ -1976,8 +1976,8 @@
     <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="15.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="13.4722222222222" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="17.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="16.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
